--- a/INTLINE/data/193/ABS/6427013.xlsx
+++ b/INTLINE/data/193/ABS/6427013.xlsx
@@ -12,194 +12,194 @@
     <sheet name="Enquiries" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="A117729353V">Data1!$AV$1:$AV$10,Data1!$AV$143:$AV$224</definedName>
-    <definedName name="A117729353V_Data">Data1!$AV$143:$AV$224</definedName>
-    <definedName name="A117729353V_Latest">Data1!$AV$224</definedName>
-    <definedName name="A2309054F">Data1!$B$1:$B$10,Data1!$B$11:$B$224</definedName>
-    <definedName name="A2309054F_Data">Data1!$B$11:$B$224</definedName>
-    <definedName name="A2309054F_Latest">Data1!$B$224</definedName>
-    <definedName name="A2309055J">Data1!$F$1:$F$10,Data1!$F$12:$F$224</definedName>
-    <definedName name="A2309055J_Data">Data1!$F$12:$F$224</definedName>
-    <definedName name="A2309055J_Latest">Data1!$F$224</definedName>
-    <definedName name="A2309056K">Data1!$I$1:$I$10,Data1!$I$15:$I$224</definedName>
-    <definedName name="A2309056K_Data">Data1!$I$15:$I$224</definedName>
-    <definedName name="A2309056K_Latest">Data1!$I$224</definedName>
-    <definedName name="A2309057L">Data1!$L$1:$L$10,Data1!$L$122:$L$224</definedName>
-    <definedName name="A2309057L_Data">Data1!$L$122:$L$224</definedName>
-    <definedName name="A2309057L_Latest">Data1!$L$224</definedName>
-    <definedName name="A2309060A">Data1!$T$1:$T$10,Data1!$T$122:$T$224</definedName>
-    <definedName name="A2309060A_Data">Data1!$T$122:$T$224</definedName>
-    <definedName name="A2309060A_Latest">Data1!$T$224</definedName>
-    <definedName name="A2309063J">Data1!$U$1:$U$10,Data1!$U$122:$U$224</definedName>
-    <definedName name="A2309063J_Data">Data1!$U$122:$U$224</definedName>
-    <definedName name="A2309063J_Latest">Data1!$U$224</definedName>
-    <definedName name="A2309066R">Data1!$V$1:$V$10,Data1!$V$122:$V$224</definedName>
-    <definedName name="A2309066R_Data">Data1!$V$122:$V$224</definedName>
-    <definedName name="A2309066R_Latest">Data1!$V$224</definedName>
-    <definedName name="A2309069W">Data1!$W$1:$W$10,Data1!$W$122:$W$224</definedName>
-    <definedName name="A2309069W_Data">Data1!$W$122:$W$224</definedName>
-    <definedName name="A2309069W_Latest">Data1!$W$224</definedName>
-    <definedName name="A2309072K">Data1!$X$1:$X$10,Data1!$X$122:$X$224</definedName>
-    <definedName name="A2309072K_Data">Data1!$X$122:$X$224</definedName>
-    <definedName name="A2309072K_Latest">Data1!$X$224</definedName>
-    <definedName name="A2309075T">Data1!$AA$1:$AA$10,Data1!$AA$122:$AA$224</definedName>
-    <definedName name="A2309075T_Data">Data1!$AA$122:$AA$224</definedName>
-    <definedName name="A2309075T_Latest">Data1!$AA$224</definedName>
-    <definedName name="A2309084V">Data1!$AQ$1:$AQ$10,Data1!$AQ$122:$AQ$224</definedName>
-    <definedName name="A2309084V_Data">Data1!$AQ$122:$AQ$224</definedName>
-    <definedName name="A2309084V_Latest">Data1!$AQ$224</definedName>
-    <definedName name="A2309099K">Data1!$O$1:$O$10,Data1!$O$122:$O$224</definedName>
-    <definedName name="A2309099K_Data">Data1!$O$122:$O$224</definedName>
-    <definedName name="A2309099K_Latest">Data1!$O$224</definedName>
-    <definedName name="A2309102L">Data1!$Q$1:$Q$10,Data1!$Q$122:$Q$224</definedName>
-    <definedName name="A2309102L_Data">Data1!$Q$122:$Q$224</definedName>
-    <definedName name="A2309102L_Latest">Data1!$Q$224</definedName>
-    <definedName name="A2309105V">Data1!$R$1:$R$10,Data1!$R$122:$R$224</definedName>
-    <definedName name="A2309105V_Data">Data1!$R$122:$R$224</definedName>
-    <definedName name="A2309105V_Latest">Data1!$R$224</definedName>
-    <definedName name="A2309108A">Data1!$S$1:$S$10,Data1!$S$122:$S$224</definedName>
-    <definedName name="A2309108A_Data">Data1!$S$122:$S$224</definedName>
-    <definedName name="A2309108A_Latest">Data1!$S$224</definedName>
-    <definedName name="A2309126F">Data1!$Y$1:$Y$10,Data1!$Y$122:$Y$224</definedName>
-    <definedName name="A2309126F_Data">Data1!$Y$122:$Y$224</definedName>
-    <definedName name="A2309126F_Latest">Data1!$Y$224</definedName>
-    <definedName name="A2309129L">Data1!$Z$1:$Z$10,Data1!$Z$122:$Z$224</definedName>
-    <definedName name="A2309129L_Data">Data1!$Z$122:$Z$224</definedName>
-    <definedName name="A2309129L_Latest">Data1!$Z$224</definedName>
-    <definedName name="A2309135J">Data1!$AE$1:$AE$10,Data1!$AE$122:$AE$224</definedName>
-    <definedName name="A2309135J_Data">Data1!$AE$122:$AE$224</definedName>
-    <definedName name="A2309135J_Latest">Data1!$AE$224</definedName>
-    <definedName name="A2309138R">Data1!$AC$1:$AC$10,Data1!$AC$122:$AC$224</definedName>
-    <definedName name="A2309138R_Data">Data1!$AC$122:$AC$224</definedName>
-    <definedName name="A2309138R_Latest">Data1!$AC$224</definedName>
-    <definedName name="A2309141C">Data1!$AG$1:$AG$10,Data1!$AG$122:$AG$224</definedName>
-    <definedName name="A2309141C_Data">Data1!$AG$122:$AG$224</definedName>
-    <definedName name="A2309141C_Latest">Data1!$AG$224</definedName>
-    <definedName name="A2309144K">Data1!$AH$1:$AH$10,Data1!$AH$122:$AH$224</definedName>
-    <definedName name="A2309144K_Data">Data1!$AH$122:$AH$224</definedName>
-    <definedName name="A2309144K_Latest">Data1!$AH$224</definedName>
-    <definedName name="A2309147T">Data1!$AI$1:$AI$10,Data1!$AI$122:$AI$224</definedName>
-    <definedName name="A2309147T_Data">Data1!$AI$122:$AI$224</definedName>
-    <definedName name="A2309147T_Latest">Data1!$AI$224</definedName>
-    <definedName name="A2309150F">Data1!$AL$1:$AL$10,Data1!$AL$122:$AL$224</definedName>
-    <definedName name="A2309150F_Data">Data1!$AL$122:$AL$224</definedName>
-    <definedName name="A2309150F_Latest">Data1!$AL$224</definedName>
-    <definedName name="A2309156V">Data1!$AP$1:$AP$10,Data1!$AP$122:$AP$224</definedName>
-    <definedName name="A2309156V_Data">Data1!$AP$122:$AP$224</definedName>
-    <definedName name="A2309156V_Latest">Data1!$AP$224</definedName>
-    <definedName name="A2309162R">Data1!$AR$1:$AR$10,Data1!$AR$122:$AR$224</definedName>
-    <definedName name="A2309162R_Data">Data1!$AR$122:$AR$224</definedName>
-    <definedName name="A2309162R_Latest">Data1!$AR$224</definedName>
-    <definedName name="A2309171T">Data1!$AX$1:$AX$10,Data1!$AX$122:$AX$224</definedName>
-    <definedName name="A2309171T_Data">Data1!$AX$122:$AX$224</definedName>
-    <definedName name="A2309171T_Latest">Data1!$AX$224</definedName>
-    <definedName name="A2309174X">Data1!$AZ$1:$AZ$10,Data1!$AZ$122:$AZ$224</definedName>
-    <definedName name="A2309174X_Data">Data1!$AZ$122:$AZ$224</definedName>
-    <definedName name="A2309174X_Latest">Data1!$AZ$224</definedName>
-    <definedName name="A2309177F">Data1!$BA$1:$BA$10,Data1!$BA$122:$BA$224</definedName>
-    <definedName name="A2309177F_Data">Data1!$BA$122:$BA$224</definedName>
-    <definedName name="A2309177F_Latest">Data1!$BA$224</definedName>
-    <definedName name="A2309180V">Data1!$BC$1:$BC$10,Data1!$BC$122:$BC$224</definedName>
-    <definedName name="A2309180V_Data">Data1!$BC$122:$BC$224</definedName>
-    <definedName name="A2309180V_Latest">Data1!$BC$224</definedName>
-    <definedName name="A2309183A">Data1!$BD$1:$BD$10,Data1!$BD$122:$BD$224</definedName>
-    <definedName name="A2309183A_Data">Data1!$BD$122:$BD$224</definedName>
-    <definedName name="A2309183A_Latest">Data1!$BD$224</definedName>
-    <definedName name="A2309192C">Data1!$BK$1:$BK$10,Data1!$BK$17:$BK$224</definedName>
-    <definedName name="A2309192C_Data">Data1!$BK$17:$BK$224</definedName>
-    <definedName name="A2309192C_Latest">Data1!$BK$224</definedName>
-    <definedName name="A2309195K">Data1!$BJ$1:$BJ$10,Data1!$BJ$17:$BJ$224</definedName>
-    <definedName name="A2309195K_Data">Data1!$BJ$17:$BJ$224</definedName>
-    <definedName name="A2309195K_Latest">Data1!$BJ$224</definedName>
-    <definedName name="A2313704X">Data1!$E$1:$E$10,Data1!$E$87:$E$224</definedName>
-    <definedName name="A2313704X_Data">Data1!$E$87:$E$224</definedName>
-    <definedName name="A2313704X_Latest">Data1!$E$224</definedName>
-    <definedName name="A2313785L">Data1!$C$1:$C$10,Data1!$C$11:$C$224</definedName>
-    <definedName name="A2313785L_Data">Data1!$C$11:$C$224</definedName>
-    <definedName name="A2313785L_Latest">Data1!$C$224</definedName>
-    <definedName name="A2313786R">Data1!$G$1:$G$10,Data1!$G$12:$G$224</definedName>
-    <definedName name="A2313786R_Data">Data1!$G$12:$G$224</definedName>
-    <definedName name="A2313786R_Latest">Data1!$G$224</definedName>
-    <definedName name="A2313787T">Data1!$J$1:$J$10,Data1!$J$15:$J$224</definedName>
-    <definedName name="A2313787T_Data">Data1!$J$15:$J$224</definedName>
-    <definedName name="A2313787T_Latest">Data1!$J$224</definedName>
-    <definedName name="A2313788V">Data1!$D$1:$D$10,Data1!$D$11:$D$224</definedName>
-    <definedName name="A2313788V_Data">Data1!$D$11:$D$224</definedName>
-    <definedName name="A2313788V_Latest">Data1!$D$224</definedName>
-    <definedName name="A2313789W">Data1!$H$1:$H$10,Data1!$H$12:$H$224</definedName>
-    <definedName name="A2313789W_Data">Data1!$H$12:$H$224</definedName>
-    <definedName name="A2313789W_Latest">Data1!$H$224</definedName>
-    <definedName name="A2313790F">Data1!$K$1:$K$10,Data1!$K$15:$K$224</definedName>
-    <definedName name="A2313790F_Data">Data1!$K$15:$K$224</definedName>
-    <definedName name="A2313790F_Latest">Data1!$K$224</definedName>
-    <definedName name="A3343966C">Data1!$M$1:$M$10,Data1!$M$143:$M$224</definedName>
-    <definedName name="A3343966C_Data">Data1!$M$143:$M$224</definedName>
-    <definedName name="A3343966C_Latest">Data1!$M$224</definedName>
-    <definedName name="A3343968J">Data1!$N$1:$N$10,Data1!$N$143:$N$224</definedName>
-    <definedName name="A3343968J_Data">Data1!$N$143:$N$224</definedName>
-    <definedName name="A3343968J_Latest">Data1!$N$224</definedName>
-    <definedName name="A3343970V">Data1!$P$1:$P$10,Data1!$P$143:$P$224</definedName>
-    <definedName name="A3343970V_Data">Data1!$P$143:$P$224</definedName>
-    <definedName name="A3343970V_Latest">Data1!$P$224</definedName>
-    <definedName name="A3343972X">Data1!$AB$1:$AB$10,Data1!$AB$143:$AB$224</definedName>
-    <definedName name="A3343972X_Data">Data1!$AB$143:$AB$224</definedName>
-    <definedName name="A3343972X_Latest">Data1!$AB$224</definedName>
-    <definedName name="A3343974C">Data1!$AD$1:$AD$10,Data1!$AD$143:$AD$224</definedName>
-    <definedName name="A3343974C_Data">Data1!$AD$143:$AD$224</definedName>
-    <definedName name="A3343974C_Latest">Data1!$AD$224</definedName>
-    <definedName name="A3343976J">Data1!$AF$1:$AF$10,Data1!$AF$143:$AF$224</definedName>
-    <definedName name="A3343976J_Data">Data1!$AF$143:$AF$224</definedName>
-    <definedName name="A3343976J_Latest">Data1!$AF$224</definedName>
-    <definedName name="A3343978L">Data1!$AJ$1:$AJ$10,Data1!$AJ$143:$AJ$224</definedName>
-    <definedName name="A3343978L_Data">Data1!$AJ$143:$AJ$224</definedName>
-    <definedName name="A3343978L_Latest">Data1!$AJ$224</definedName>
-    <definedName name="A3343980X">Data1!$AK$1:$AK$10,Data1!$AK$143:$AK$224</definedName>
-    <definedName name="A3343980X_Data">Data1!$AK$143:$AK$224</definedName>
-    <definedName name="A3343980X_Latest">Data1!$AK$224</definedName>
-    <definedName name="A3343982C">Data1!$AM$1:$AM$10,Data1!$AM$143:$AM$224</definedName>
-    <definedName name="A3343982C_Data">Data1!$AM$143:$AM$224</definedName>
-    <definedName name="A3343982C_Latest">Data1!$AM$224</definedName>
-    <definedName name="A3343984J">Data1!$AN$1:$AN$10,Data1!$AN$143:$AN$224</definedName>
-    <definedName name="A3343984J_Data">Data1!$AN$143:$AN$224</definedName>
-    <definedName name="A3343984J_Latest">Data1!$AN$224</definedName>
-    <definedName name="A3343986L">Data1!$AO$1:$AO$10,Data1!$AO$143:$AO$224</definedName>
-    <definedName name="A3343986L_Data">Data1!$AO$143:$AO$224</definedName>
-    <definedName name="A3343986L_Latest">Data1!$AO$224</definedName>
-    <definedName name="A3343988T">Data1!$AS$1:$AS$10,Data1!$AS$143:$AS$224</definedName>
-    <definedName name="A3343988T_Data">Data1!$AS$143:$AS$224</definedName>
-    <definedName name="A3343988T_Latest">Data1!$AS$224</definedName>
-    <definedName name="A3343990C">Data1!$AT$1:$AT$10,Data1!$AT$143:$AT$224</definedName>
-    <definedName name="A3343990C_Data">Data1!$AT$143:$AT$224</definedName>
-    <definedName name="A3343990C_Latest">Data1!$AT$224</definedName>
-    <definedName name="A3343992J">Data1!$AU$1:$AU$10,Data1!$AU$143:$AU$224</definedName>
-    <definedName name="A3343992J_Data">Data1!$AU$143:$AU$224</definedName>
-    <definedName name="A3343992J_Latest">Data1!$AU$224</definedName>
-    <definedName name="A3343994L">Data1!$AW$1:$AW$10,Data1!$AW$143:$AW$224</definedName>
-    <definedName name="A3343994L_Data">Data1!$AW$143:$AW$224</definedName>
-    <definedName name="A3343994L_Latest">Data1!$AW$224</definedName>
-    <definedName name="A3343996T">Data1!$AY$1:$AY$10,Data1!$AY$143:$AY$224</definedName>
-    <definedName name="A3343996T_Data">Data1!$AY$143:$AY$224</definedName>
-    <definedName name="A3343996T_Latest">Data1!$AY$224</definedName>
-    <definedName name="A3343998W">Data1!$BB$1:$BB$10,Data1!$BB$143:$BB$224</definedName>
-    <definedName name="A3343998W_Data">Data1!$BB$143:$BB$224</definedName>
-    <definedName name="A3343998W_Latest">Data1!$BB$224</definedName>
-    <definedName name="A3344000X">Data1!$BE$1:$BE$10,Data1!$BE$143:$BE$224</definedName>
-    <definedName name="A3344000X_Data">Data1!$BE$143:$BE$224</definedName>
-    <definedName name="A3344000X_Latest">Data1!$BE$224</definedName>
-    <definedName name="A3344002C">Data1!$BF$1:$BF$10,Data1!$BF$143:$BF$224</definedName>
-    <definedName name="A3344002C_Data">Data1!$BF$143:$BF$224</definedName>
-    <definedName name="A3344002C_Latest">Data1!$BF$224</definedName>
-    <definedName name="A3344004J">Data1!$BG$1:$BG$10,Data1!$BG$143:$BG$224</definedName>
-    <definedName name="A3344004J_Data">Data1!$BG$143:$BG$224</definedName>
-    <definedName name="A3344004J_Latest">Data1!$BG$224</definedName>
-    <definedName name="A3344006L">Data1!$BH$1:$BH$10,Data1!$BH$143:$BH$224</definedName>
-    <definedName name="A3344006L_Data">Data1!$BH$143:$BH$224</definedName>
-    <definedName name="A3344006L_Latest">Data1!$BH$224</definedName>
-    <definedName name="A3344008T">Data1!$BI$1:$BI$10,Data1!$BI$143:$BI$224</definedName>
-    <definedName name="A3344008T_Data">Data1!$BI$143:$BI$224</definedName>
-    <definedName name="A3344008T_Latest">Data1!$BI$224</definedName>
-    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$224</definedName>
-    <definedName name="Date_Range_Data">Data1!$A$11:$A$224</definedName>
+    <definedName name="A117729353V">Data1!$AV$1:$AV$10,Data1!$AV$143:$AV$225</definedName>
+    <definedName name="A117729353V_Data">Data1!$AV$143:$AV$225</definedName>
+    <definedName name="A117729353V_Latest">Data1!$AV$225</definedName>
+    <definedName name="A2309054F">Data1!$B$1:$B$10,Data1!$B$11:$B$225</definedName>
+    <definedName name="A2309054F_Data">Data1!$B$11:$B$225</definedName>
+    <definedName name="A2309054F_Latest">Data1!$B$225</definedName>
+    <definedName name="A2309055J">Data1!$F$1:$F$10,Data1!$F$12:$F$225</definedName>
+    <definedName name="A2309055J_Data">Data1!$F$12:$F$225</definedName>
+    <definedName name="A2309055J_Latest">Data1!$F$225</definedName>
+    <definedName name="A2309056K">Data1!$I$1:$I$10,Data1!$I$15:$I$225</definedName>
+    <definedName name="A2309056K_Data">Data1!$I$15:$I$225</definedName>
+    <definedName name="A2309056K_Latest">Data1!$I$225</definedName>
+    <definedName name="A2309057L">Data1!$L$1:$L$10,Data1!$L$122:$L$225</definedName>
+    <definedName name="A2309057L_Data">Data1!$L$122:$L$225</definedName>
+    <definedName name="A2309057L_Latest">Data1!$L$225</definedName>
+    <definedName name="A2309060A">Data1!$T$1:$T$10,Data1!$T$122:$T$225</definedName>
+    <definedName name="A2309060A_Data">Data1!$T$122:$T$225</definedName>
+    <definedName name="A2309060A_Latest">Data1!$T$225</definedName>
+    <definedName name="A2309063J">Data1!$U$1:$U$10,Data1!$U$122:$U$225</definedName>
+    <definedName name="A2309063J_Data">Data1!$U$122:$U$225</definedName>
+    <definedName name="A2309063J_Latest">Data1!$U$225</definedName>
+    <definedName name="A2309066R">Data1!$V$1:$V$10,Data1!$V$122:$V$225</definedName>
+    <definedName name="A2309066R_Data">Data1!$V$122:$V$225</definedName>
+    <definedName name="A2309066R_Latest">Data1!$V$225</definedName>
+    <definedName name="A2309069W">Data1!$W$1:$W$10,Data1!$W$122:$W$225</definedName>
+    <definedName name="A2309069W_Data">Data1!$W$122:$W$225</definedName>
+    <definedName name="A2309069W_Latest">Data1!$W$225</definedName>
+    <definedName name="A2309072K">Data1!$X$1:$X$10,Data1!$X$122:$X$225</definedName>
+    <definedName name="A2309072K_Data">Data1!$X$122:$X$225</definedName>
+    <definedName name="A2309072K_Latest">Data1!$X$225</definedName>
+    <definedName name="A2309075T">Data1!$AA$1:$AA$10,Data1!$AA$122:$AA$225</definedName>
+    <definedName name="A2309075T_Data">Data1!$AA$122:$AA$225</definedName>
+    <definedName name="A2309075T_Latest">Data1!$AA$225</definedName>
+    <definedName name="A2309084V">Data1!$AQ$1:$AQ$10,Data1!$AQ$122:$AQ$225</definedName>
+    <definedName name="A2309084V_Data">Data1!$AQ$122:$AQ$225</definedName>
+    <definedName name="A2309084V_Latest">Data1!$AQ$225</definedName>
+    <definedName name="A2309099K">Data1!$O$1:$O$10,Data1!$O$122:$O$225</definedName>
+    <definedName name="A2309099K_Data">Data1!$O$122:$O$225</definedName>
+    <definedName name="A2309099K_Latest">Data1!$O$225</definedName>
+    <definedName name="A2309102L">Data1!$Q$1:$Q$10,Data1!$Q$122:$Q$225</definedName>
+    <definedName name="A2309102L_Data">Data1!$Q$122:$Q$225</definedName>
+    <definedName name="A2309102L_Latest">Data1!$Q$225</definedName>
+    <definedName name="A2309105V">Data1!$R$1:$R$10,Data1!$R$122:$R$225</definedName>
+    <definedName name="A2309105V_Data">Data1!$R$122:$R$225</definedName>
+    <definedName name="A2309105V_Latest">Data1!$R$225</definedName>
+    <definedName name="A2309108A">Data1!$S$1:$S$10,Data1!$S$122:$S$225</definedName>
+    <definedName name="A2309108A_Data">Data1!$S$122:$S$225</definedName>
+    <definedName name="A2309108A_Latest">Data1!$S$225</definedName>
+    <definedName name="A2309126F">Data1!$Y$1:$Y$10,Data1!$Y$122:$Y$225</definedName>
+    <definedName name="A2309126F_Data">Data1!$Y$122:$Y$225</definedName>
+    <definedName name="A2309126F_Latest">Data1!$Y$225</definedName>
+    <definedName name="A2309129L">Data1!$Z$1:$Z$10,Data1!$Z$122:$Z$225</definedName>
+    <definedName name="A2309129L_Data">Data1!$Z$122:$Z$225</definedName>
+    <definedName name="A2309129L_Latest">Data1!$Z$225</definedName>
+    <definedName name="A2309135J">Data1!$AE$1:$AE$10,Data1!$AE$122:$AE$225</definedName>
+    <definedName name="A2309135J_Data">Data1!$AE$122:$AE$225</definedName>
+    <definedName name="A2309135J_Latest">Data1!$AE$225</definedName>
+    <definedName name="A2309138R">Data1!$AC$1:$AC$10,Data1!$AC$122:$AC$225</definedName>
+    <definedName name="A2309138R_Data">Data1!$AC$122:$AC$225</definedName>
+    <definedName name="A2309138R_Latest">Data1!$AC$225</definedName>
+    <definedName name="A2309141C">Data1!$AG$1:$AG$10,Data1!$AG$122:$AG$225</definedName>
+    <definedName name="A2309141C_Data">Data1!$AG$122:$AG$225</definedName>
+    <definedName name="A2309141C_Latest">Data1!$AG$225</definedName>
+    <definedName name="A2309144K">Data1!$AH$1:$AH$10,Data1!$AH$122:$AH$225</definedName>
+    <definedName name="A2309144K_Data">Data1!$AH$122:$AH$225</definedName>
+    <definedName name="A2309144K_Latest">Data1!$AH$225</definedName>
+    <definedName name="A2309147T">Data1!$AI$1:$AI$10,Data1!$AI$122:$AI$225</definedName>
+    <definedName name="A2309147T_Data">Data1!$AI$122:$AI$225</definedName>
+    <definedName name="A2309147T_Latest">Data1!$AI$225</definedName>
+    <definedName name="A2309150F">Data1!$AL$1:$AL$10,Data1!$AL$122:$AL$225</definedName>
+    <definedName name="A2309150F_Data">Data1!$AL$122:$AL$225</definedName>
+    <definedName name="A2309150F_Latest">Data1!$AL$225</definedName>
+    <definedName name="A2309156V">Data1!$AP$1:$AP$10,Data1!$AP$122:$AP$225</definedName>
+    <definedName name="A2309156V_Data">Data1!$AP$122:$AP$225</definedName>
+    <definedName name="A2309156V_Latest">Data1!$AP$225</definedName>
+    <definedName name="A2309162R">Data1!$AR$1:$AR$10,Data1!$AR$122:$AR$225</definedName>
+    <definedName name="A2309162R_Data">Data1!$AR$122:$AR$225</definedName>
+    <definedName name="A2309162R_Latest">Data1!$AR$225</definedName>
+    <definedName name="A2309171T">Data1!$AX$1:$AX$10,Data1!$AX$122:$AX$225</definedName>
+    <definedName name="A2309171T_Data">Data1!$AX$122:$AX$225</definedName>
+    <definedName name="A2309171T_Latest">Data1!$AX$225</definedName>
+    <definedName name="A2309174X">Data1!$AZ$1:$AZ$10,Data1!$AZ$122:$AZ$225</definedName>
+    <definedName name="A2309174X_Data">Data1!$AZ$122:$AZ$225</definedName>
+    <definedName name="A2309174X_Latest">Data1!$AZ$225</definedName>
+    <definedName name="A2309177F">Data1!$BA$1:$BA$10,Data1!$BA$122:$BA$225</definedName>
+    <definedName name="A2309177F_Data">Data1!$BA$122:$BA$225</definedName>
+    <definedName name="A2309177F_Latest">Data1!$BA$225</definedName>
+    <definedName name="A2309180V">Data1!$BC$1:$BC$10,Data1!$BC$122:$BC$225</definedName>
+    <definedName name="A2309180V_Data">Data1!$BC$122:$BC$225</definedName>
+    <definedName name="A2309180V_Latest">Data1!$BC$225</definedName>
+    <definedName name="A2309183A">Data1!$BD$1:$BD$10,Data1!$BD$122:$BD$225</definedName>
+    <definedName name="A2309183A_Data">Data1!$BD$122:$BD$225</definedName>
+    <definedName name="A2309183A_Latest">Data1!$BD$225</definedName>
+    <definedName name="A2309192C">Data1!$BK$1:$BK$10,Data1!$BK$17:$BK$225</definedName>
+    <definedName name="A2309192C_Data">Data1!$BK$17:$BK$225</definedName>
+    <definedName name="A2309192C_Latest">Data1!$BK$225</definedName>
+    <definedName name="A2309195K">Data1!$BJ$1:$BJ$10,Data1!$BJ$17:$BJ$225</definedName>
+    <definedName name="A2309195K_Data">Data1!$BJ$17:$BJ$225</definedName>
+    <definedName name="A2309195K_Latest">Data1!$BJ$225</definedName>
+    <definedName name="A2313704X">Data1!$E$1:$E$10,Data1!$E$87:$E$225</definedName>
+    <definedName name="A2313704X_Data">Data1!$E$87:$E$225</definedName>
+    <definedName name="A2313704X_Latest">Data1!$E$225</definedName>
+    <definedName name="A2313785L">Data1!$C$1:$C$10,Data1!$C$11:$C$225</definedName>
+    <definedName name="A2313785L_Data">Data1!$C$11:$C$225</definedName>
+    <definedName name="A2313785L_Latest">Data1!$C$225</definedName>
+    <definedName name="A2313786R">Data1!$G$1:$G$10,Data1!$G$12:$G$225</definedName>
+    <definedName name="A2313786R_Data">Data1!$G$12:$G$225</definedName>
+    <definedName name="A2313786R_Latest">Data1!$G$225</definedName>
+    <definedName name="A2313787T">Data1!$J$1:$J$10,Data1!$J$15:$J$225</definedName>
+    <definedName name="A2313787T_Data">Data1!$J$15:$J$225</definedName>
+    <definedName name="A2313787T_Latest">Data1!$J$225</definedName>
+    <definedName name="A2313788V">Data1!$D$1:$D$10,Data1!$D$11:$D$225</definedName>
+    <definedName name="A2313788V_Data">Data1!$D$11:$D$225</definedName>
+    <definedName name="A2313788V_Latest">Data1!$D$225</definedName>
+    <definedName name="A2313789W">Data1!$H$1:$H$10,Data1!$H$12:$H$225</definedName>
+    <definedName name="A2313789W_Data">Data1!$H$12:$H$225</definedName>
+    <definedName name="A2313789W_Latest">Data1!$H$225</definedName>
+    <definedName name="A2313790F">Data1!$K$1:$K$10,Data1!$K$15:$K$225</definedName>
+    <definedName name="A2313790F_Data">Data1!$K$15:$K$225</definedName>
+    <definedName name="A2313790F_Latest">Data1!$K$225</definedName>
+    <definedName name="A3343966C">Data1!$M$1:$M$10,Data1!$M$143:$M$225</definedName>
+    <definedName name="A3343966C_Data">Data1!$M$143:$M$225</definedName>
+    <definedName name="A3343966C_Latest">Data1!$M$225</definedName>
+    <definedName name="A3343968J">Data1!$N$1:$N$10,Data1!$N$143:$N$225</definedName>
+    <definedName name="A3343968J_Data">Data1!$N$143:$N$225</definedName>
+    <definedName name="A3343968J_Latest">Data1!$N$225</definedName>
+    <definedName name="A3343970V">Data1!$P$1:$P$10,Data1!$P$143:$P$225</definedName>
+    <definedName name="A3343970V_Data">Data1!$P$143:$P$225</definedName>
+    <definedName name="A3343970V_Latest">Data1!$P$225</definedName>
+    <definedName name="A3343972X">Data1!$AB$1:$AB$10,Data1!$AB$143:$AB$225</definedName>
+    <definedName name="A3343972X_Data">Data1!$AB$143:$AB$225</definedName>
+    <definedName name="A3343972X_Latest">Data1!$AB$225</definedName>
+    <definedName name="A3343974C">Data1!$AD$1:$AD$10,Data1!$AD$143:$AD$225</definedName>
+    <definedName name="A3343974C_Data">Data1!$AD$143:$AD$225</definedName>
+    <definedName name="A3343974C_Latest">Data1!$AD$225</definedName>
+    <definedName name="A3343976J">Data1!$AF$1:$AF$10,Data1!$AF$143:$AF$225</definedName>
+    <definedName name="A3343976J_Data">Data1!$AF$143:$AF$225</definedName>
+    <definedName name="A3343976J_Latest">Data1!$AF$225</definedName>
+    <definedName name="A3343978L">Data1!$AJ$1:$AJ$10,Data1!$AJ$143:$AJ$225</definedName>
+    <definedName name="A3343978L_Data">Data1!$AJ$143:$AJ$225</definedName>
+    <definedName name="A3343978L_Latest">Data1!$AJ$225</definedName>
+    <definedName name="A3343980X">Data1!$AK$1:$AK$10,Data1!$AK$143:$AK$225</definedName>
+    <definedName name="A3343980X_Data">Data1!$AK$143:$AK$225</definedName>
+    <definedName name="A3343980X_Latest">Data1!$AK$225</definedName>
+    <definedName name="A3343982C">Data1!$AM$1:$AM$10,Data1!$AM$143:$AM$225</definedName>
+    <definedName name="A3343982C_Data">Data1!$AM$143:$AM$225</definedName>
+    <definedName name="A3343982C_Latest">Data1!$AM$225</definedName>
+    <definedName name="A3343984J">Data1!$AN$1:$AN$10,Data1!$AN$143:$AN$225</definedName>
+    <definedName name="A3343984J_Data">Data1!$AN$143:$AN$225</definedName>
+    <definedName name="A3343984J_Latest">Data1!$AN$225</definedName>
+    <definedName name="A3343986L">Data1!$AO$1:$AO$10,Data1!$AO$143:$AO$225</definedName>
+    <definedName name="A3343986L_Data">Data1!$AO$143:$AO$225</definedName>
+    <definedName name="A3343986L_Latest">Data1!$AO$225</definedName>
+    <definedName name="A3343988T">Data1!$AS$1:$AS$10,Data1!$AS$143:$AS$225</definedName>
+    <definedName name="A3343988T_Data">Data1!$AS$143:$AS$225</definedName>
+    <definedName name="A3343988T_Latest">Data1!$AS$225</definedName>
+    <definedName name="A3343990C">Data1!$AT$1:$AT$10,Data1!$AT$143:$AT$225</definedName>
+    <definedName name="A3343990C_Data">Data1!$AT$143:$AT$225</definedName>
+    <definedName name="A3343990C_Latest">Data1!$AT$225</definedName>
+    <definedName name="A3343992J">Data1!$AU$1:$AU$10,Data1!$AU$143:$AU$225</definedName>
+    <definedName name="A3343992J_Data">Data1!$AU$143:$AU$225</definedName>
+    <definedName name="A3343992J_Latest">Data1!$AU$225</definedName>
+    <definedName name="A3343994L">Data1!$AW$1:$AW$10,Data1!$AW$143:$AW$225</definedName>
+    <definedName name="A3343994L_Data">Data1!$AW$143:$AW$225</definedName>
+    <definedName name="A3343994L_Latest">Data1!$AW$225</definedName>
+    <definedName name="A3343996T">Data1!$AY$1:$AY$10,Data1!$AY$143:$AY$225</definedName>
+    <definedName name="A3343996T_Data">Data1!$AY$143:$AY$225</definedName>
+    <definedName name="A3343996T_Latest">Data1!$AY$225</definedName>
+    <definedName name="A3343998W">Data1!$BB$1:$BB$10,Data1!$BB$143:$BB$225</definedName>
+    <definedName name="A3343998W_Data">Data1!$BB$143:$BB$225</definedName>
+    <definedName name="A3343998W_Latest">Data1!$BB$225</definedName>
+    <definedName name="A3344000X">Data1!$BE$1:$BE$10,Data1!$BE$143:$BE$225</definedName>
+    <definedName name="A3344000X_Data">Data1!$BE$143:$BE$225</definedName>
+    <definedName name="A3344000X_Latest">Data1!$BE$225</definedName>
+    <definedName name="A3344002C">Data1!$BF$1:$BF$10,Data1!$BF$143:$BF$225</definedName>
+    <definedName name="A3344002C_Data">Data1!$BF$143:$BF$225</definedName>
+    <definedName name="A3344002C_Latest">Data1!$BF$225</definedName>
+    <definedName name="A3344004J">Data1!$BG$1:$BG$10,Data1!$BG$143:$BG$225</definedName>
+    <definedName name="A3344004J_Data">Data1!$BG$143:$BG$225</definedName>
+    <definedName name="A3344004J_Latest">Data1!$BG$225</definedName>
+    <definedName name="A3344006L">Data1!$BH$1:$BH$10,Data1!$BH$143:$BH$225</definedName>
+    <definedName name="A3344006L_Data">Data1!$BH$143:$BH$225</definedName>
+    <definedName name="A3344006L_Latest">Data1!$BH$225</definedName>
+    <definedName name="A3344008T">Data1!$BI$1:$BI$10,Data1!$BI$143:$BI$225</definedName>
+    <definedName name="A3344008T_Data">Data1!$BI$143:$BI$225</definedName>
+    <definedName name="A3344008T_Latest">Data1!$BI$225</definedName>
+    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$225</definedName>
+    <definedName name="Date_Range_Data">Data1!$A$11:$A$225</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -2407,6 +2407,45 @@
         </r>
       </text>
     </comment>
+    <comment ref="AD225" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AE225" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BH225" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -3564,10 +3603,10 @@
         <v>25082</v>
       </c>
       <c r="G12" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H12" s="10">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>71</v>
@@ -3596,10 +3635,10 @@
         <v>25082</v>
       </c>
       <c r="G13" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H13" s="10">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="I13" s="10" t="s">
         <v>71</v>
@@ -3628,10 +3667,10 @@
         <v>25082</v>
       </c>
       <c r="G14" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H14" s="10">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="I14" s="10" t="s">
         <v>71</v>
@@ -3660,10 +3699,10 @@
         <v>32021</v>
       </c>
       <c r="G15" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H15" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>71</v>
@@ -3692,10 +3731,10 @@
         <v>25173</v>
       </c>
       <c r="G16" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H16" s="10">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I16" s="10" t="s">
         <v>79</v>
@@ -3724,10 +3763,10 @@
         <v>25173</v>
       </c>
       <c r="G17" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H17" s="10">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>79</v>
@@ -3756,10 +3795,10 @@
         <v>25173</v>
       </c>
       <c r="G18" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H18" s="10">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>79</v>
@@ -3788,10 +3827,10 @@
         <v>25447</v>
       </c>
       <c r="G19" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H19" s="10">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>79</v>
@@ -3820,10 +3859,10 @@
         <v>25447</v>
       </c>
       <c r="G20" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H20" s="10">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I20" s="10" t="s">
         <v>79</v>
@@ -3852,10 +3891,10 @@
         <v>25447</v>
       </c>
       <c r="G21" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H21" s="10">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>79</v>
@@ -3884,10 +3923,10 @@
         <v>35217</v>
       </c>
       <c r="G22" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H22" s="10">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I22" s="10" t="s">
         <v>71</v>
@@ -3916,10 +3955,10 @@
         <v>37135</v>
       </c>
       <c r="G23" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H23" s="10">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I23" s="10" t="s">
         <v>71</v>
@@ -3948,10 +3987,10 @@
         <v>37135</v>
       </c>
       <c r="G24" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H24" s="10">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I24" s="10" t="s">
         <v>71</v>
@@ -3980,10 +4019,10 @@
         <v>35217</v>
       </c>
       <c r="G25" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H25" s="10">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I25" s="10" t="s">
         <v>71</v>
@@ -4012,10 +4051,10 @@
         <v>37135</v>
       </c>
       <c r="G26" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H26" s="10">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I26" s="10" t="s">
         <v>71</v>
@@ -4044,10 +4083,10 @@
         <v>35217</v>
       </c>
       <c r="G27" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H27" s="10">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I27" s="10" t="s">
         <v>71</v>
@@ -4076,10 +4115,10 @@
         <v>35217</v>
       </c>
       <c r="G28" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H28" s="10">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I28" s="10" t="s">
         <v>71</v>
@@ -4108,10 +4147,10 @@
         <v>35217</v>
       </c>
       <c r="G29" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H29" s="10">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I29" s="10" t="s">
         <v>71</v>
@@ -4140,10 +4179,10 @@
         <v>35217</v>
       </c>
       <c r="G30" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H30" s="10">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I30" s="10" t="s">
         <v>71</v>
@@ -4172,10 +4211,10 @@
         <v>35217</v>
       </c>
       <c r="G31" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H31" s="10">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I31" s="10" t="s">
         <v>71</v>
@@ -4204,10 +4243,10 @@
         <v>35217</v>
       </c>
       <c r="G32" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H32" s="10">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I32" s="10" t="s">
         <v>71</v>
@@ -4236,10 +4275,10 @@
         <v>35217</v>
       </c>
       <c r="G33" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H33" s="10">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I33" s="10" t="s">
         <v>71</v>
@@ -4268,10 +4307,10 @@
         <v>35217</v>
       </c>
       <c r="G34" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H34" s="10">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I34" s="10" t="s">
         <v>71</v>
@@ -4300,10 +4339,10 @@
         <v>35217</v>
       </c>
       <c r="G35" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H35" s="10">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I35" s="10" t="s">
         <v>71</v>
@@ -4332,10 +4371,10 @@
         <v>35217</v>
       </c>
       <c r="G36" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H36" s="10">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I36" s="10" t="s">
         <v>71</v>
@@ -4364,10 +4403,10 @@
         <v>35217</v>
       </c>
       <c r="G37" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H37" s="10">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I37" s="10" t="s">
         <v>71</v>
@@ -4396,10 +4435,10 @@
         <v>37135</v>
       </c>
       <c r="G38" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H38" s="10">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I38" s="10" t="s">
         <v>71</v>
@@ -4428,10 +4467,10 @@
         <v>35217</v>
       </c>
       <c r="G39" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H39" s="10">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I39" s="10" t="s">
         <v>71</v>
@@ -4460,10 +4499,10 @@
         <v>37135</v>
       </c>
       <c r="G40" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H40" s="10">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I40" s="10" t="s">
         <v>71</v>
@@ -4492,10 +4531,10 @@
         <v>35217</v>
       </c>
       <c r="G41" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H41" s="10">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I41" s="10" t="s">
         <v>71</v>
@@ -4524,10 +4563,10 @@
         <v>37135</v>
       </c>
       <c r="G42" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H42" s="10">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I42" s="10" t="s">
         <v>71</v>
@@ -4556,10 +4595,10 @@
         <v>35217</v>
       </c>
       <c r="G43" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H43" s="10">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I43" s="10" t="s">
         <v>71</v>
@@ -4588,10 +4627,10 @@
         <v>35217</v>
       </c>
       <c r="G44" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H44" s="10">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I44" s="10" t="s">
         <v>71</v>
@@ -4620,10 +4659,10 @@
         <v>35217</v>
       </c>
       <c r="G45" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H45" s="10">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I45" s="10" t="s">
         <v>71</v>
@@ -4652,10 +4691,10 @@
         <v>37135</v>
       </c>
       <c r="G46" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H46" s="10">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I46" s="10" t="s">
         <v>71</v>
@@ -4684,10 +4723,10 @@
         <v>37135</v>
       </c>
       <c r="G47" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H47" s="10">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I47" s="10" t="s">
         <v>71</v>
@@ -4716,10 +4755,10 @@
         <v>35217</v>
       </c>
       <c r="G48" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H48" s="10">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I48" s="10" t="s">
         <v>71</v>
@@ -4748,10 +4787,10 @@
         <v>37135</v>
       </c>
       <c r="G49" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H49" s="10">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I49" s="10" t="s">
         <v>71</v>
@@ -4780,10 +4819,10 @@
         <v>37135</v>
       </c>
       <c r="G50" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H50" s="10">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I50" s="10" t="s">
         <v>71</v>
@@ -4812,10 +4851,10 @@
         <v>37135</v>
       </c>
       <c r="G51" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H51" s="10">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I51" s="10" t="s">
         <v>71</v>
@@ -4844,10 +4883,10 @@
         <v>35217</v>
       </c>
       <c r="G52" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H52" s="10">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I52" s="10" t="s">
         <v>71</v>
@@ -4876,10 +4915,10 @@
         <v>35217</v>
       </c>
       <c r="G53" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H53" s="10">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I53" s="10" t="s">
         <v>71</v>
@@ -4908,10 +4947,10 @@
         <v>35217</v>
       </c>
       <c r="G54" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H54" s="10">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I54" s="10" t="s">
         <v>71</v>
@@ -4940,10 +4979,10 @@
         <v>37135</v>
       </c>
       <c r="G55" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H55" s="10">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I55" s="10" t="s">
         <v>71</v>
@@ -4972,10 +5011,10 @@
         <v>37135</v>
       </c>
       <c r="G56" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H56" s="10">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I56" s="10" t="s">
         <v>71</v>
@@ -5004,10 +5043,10 @@
         <v>37135</v>
       </c>
       <c r="G57" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H57" s="10">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I57" s="10" t="s">
         <v>71</v>
@@ -5036,10 +5075,10 @@
         <v>37135</v>
       </c>
       <c r="G58" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H58" s="10">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I58" s="10" t="s">
         <v>71</v>
@@ -5068,10 +5107,10 @@
         <v>37135</v>
       </c>
       <c r="G59" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H59" s="10">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I59" s="10" t="s">
         <v>71</v>
@@ -5100,10 +5139,10 @@
         <v>35217</v>
       </c>
       <c r="G60" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H60" s="10">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I60" s="10" t="s">
         <v>71</v>
@@ -5132,10 +5171,10 @@
         <v>37135</v>
       </c>
       <c r="G61" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H61" s="10">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I61" s="10" t="s">
         <v>71</v>
@@ -5164,10 +5203,10 @@
         <v>35217</v>
       </c>
       <c r="G62" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H62" s="10">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I62" s="10" t="s">
         <v>71</v>
@@ -5196,10 +5235,10 @@
         <v>35217</v>
       </c>
       <c r="G63" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H63" s="10">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I63" s="10" t="s">
         <v>71</v>
@@ -5228,10 +5267,10 @@
         <v>37135</v>
       </c>
       <c r="G64" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H64" s="10">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I64" s="10" t="s">
         <v>71</v>
@@ -5260,10 +5299,10 @@
         <v>35217</v>
       </c>
       <c r="G65" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H65" s="10">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I65" s="10" t="s">
         <v>71</v>
@@ -5292,10 +5331,10 @@
         <v>35217</v>
       </c>
       <c r="G66" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H66" s="10">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I66" s="10" t="s">
         <v>71</v>
@@ -5324,10 +5363,10 @@
         <v>37135</v>
       </c>
       <c r="G67" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H67" s="10">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I67" s="10" t="s">
         <v>71</v>
@@ -5356,10 +5395,10 @@
         <v>37135</v>
       </c>
       <c r="G68" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H68" s="10">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I68" s="10" t="s">
         <v>71</v>
@@ -5388,10 +5427,10 @@
         <v>37135</v>
       </c>
       <c r="G69" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H69" s="10">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I69" s="10" t="s">
         <v>71</v>
@@ -5420,10 +5459,10 @@
         <v>37135</v>
       </c>
       <c r="G70" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H70" s="10">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I70" s="10" t="s">
         <v>71</v>
@@ -5452,10 +5491,10 @@
         <v>37135</v>
       </c>
       <c r="G71" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H71" s="10">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I71" s="10" t="s">
         <v>71</v>
@@ -5484,10 +5523,10 @@
         <v>25628</v>
       </c>
       <c r="G72" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H72" s="10">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I72" s="10" t="s">
         <v>71</v>
@@ -5516,10 +5555,10 @@
         <v>25628</v>
       </c>
       <c r="G73" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H73" s="10">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I73" s="10" t="s">
         <v>71</v>
@@ -5616,7 +5655,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BK224"/>
+  <dimension ref="A1:BK225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
@@ -6969,190 +7008,190 @@
         <v>68</v>
       </c>
       <c r="B8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="C8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="D8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="E8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="F8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="G8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="I8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="J8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="K8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="L8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="M8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="N8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="O8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="P8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="Q8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="R8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="S8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="T8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="U8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="V8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="W8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="X8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="Y8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="Z8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AA8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AB8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AC8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AD8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AE8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AF8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AG8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AH8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AI8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AJ8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AK8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AL8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AM8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AN8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AO8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AP8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AQ8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AR8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AS8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AT8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AU8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AV8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AW8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AX8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AY8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AZ8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="BA8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="BB8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="BC8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="BD8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="BE8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="BF8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="BG8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="BH8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="BI8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="BJ8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="BK8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
     </row>
     <row r="9" spans="1:63" x14ac:dyDescent="0.2">
@@ -7160,190 +7199,190 @@
         <v>69</v>
       </c>
       <c r="B9" s="1">
+        <v>215</v>
+      </c>
+      <c r="C9" s="1">
+        <v>215</v>
+      </c>
+      <c r="D9" s="1">
+        <v>215</v>
+      </c>
+      <c r="E9" s="1">
+        <v>139</v>
+      </c>
+      <c r="F9" s="1">
         <v>214</v>
       </c>
-      <c r="C9" s="1">
+      <c r="G9" s="1">
         <v>214</v>
       </c>
-      <c r="D9" s="1">
+      <c r="H9" s="1">
         <v>214</v>
       </c>
-      <c r="E9" s="1">
-        <v>138</v>
-      </c>
-      <c r="F9" s="1">
-        <v>213</v>
-      </c>
-      <c r="G9" s="1">
-        <v>213</v>
-      </c>
-      <c r="H9" s="1">
-        <v>213</v>
-      </c>
       <c r="I9" s="1">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J9" s="1">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K9" s="1">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L9" s="1">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M9" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N9" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O9" s="1">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P9" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q9" s="1">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="R9" s="1">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="S9" s="1">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="T9" s="1">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="U9" s="1">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="V9" s="1">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="W9" s="1">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X9" s="1">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Y9" s="1">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Z9" s="1">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AA9" s="1">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AB9" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AC9" s="1">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AD9" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AE9" s="1">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AF9" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AG9" s="1">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AH9" s="1">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AI9" s="1">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AJ9" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AK9" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AL9" s="1">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AM9" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AN9" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AO9" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AP9" s="1">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AQ9" s="1">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AR9" s="1">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AS9" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AT9" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AU9" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AV9" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AW9" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AX9" s="1">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AY9" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AZ9" s="1">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="BA9" s="1">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="BB9" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BC9" s="1">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="BD9" s="1">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="BE9" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BF9" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BG9" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BH9" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BI9" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BJ9" s="1">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="BK9" s="1">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:63" x14ac:dyDescent="0.2">
@@ -29917,6 +29956,191 @@
       </c>
       <c r="BK224" s="8">
         <v>135</v>
+      </c>
+    </row>
+    <row r="225" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A225" s="9">
+        <v>44621</v>
+      </c>
+      <c r="B225" s="8">
+        <v>139.30000000000001</v>
+      </c>
+      <c r="C225" s="8">
+        <v>154.1</v>
+      </c>
+      <c r="D225" s="8">
+        <v>136.69999999999999</v>
+      </c>
+      <c r="E225" s="8">
+        <v>141.6</v>
+      </c>
+      <c r="F225" s="8">
+        <v>6.2</v>
+      </c>
+      <c r="G225" s="8">
+        <v>10.6</v>
+      </c>
+      <c r="H225" s="8">
+        <v>4.8</v>
+      </c>
+      <c r="I225" s="8">
+        <v>18.5</v>
+      </c>
+      <c r="J225" s="8">
+        <v>30</v>
+      </c>
+      <c r="K225" s="8">
+        <v>14.9</v>
+      </c>
+      <c r="L225" s="8">
+        <v>165.4</v>
+      </c>
+      <c r="M225" s="8">
+        <v>94.2</v>
+      </c>
+      <c r="N225" s="8">
+        <v>142.30000000000001</v>
+      </c>
+      <c r="O225" s="8">
+        <v>192.9</v>
+      </c>
+      <c r="P225" s="8">
+        <v>149.30000000000001</v>
+      </c>
+      <c r="Q225" s="8">
+        <v>130.6</v>
+      </c>
+      <c r="R225" s="8">
+        <v>141.19999999999999</v>
+      </c>
+      <c r="S225" s="8">
+        <v>120.8</v>
+      </c>
+      <c r="T225" s="8">
+        <v>122.5</v>
+      </c>
+      <c r="U225" s="8">
+        <v>209.4</v>
+      </c>
+      <c r="V225" s="8">
+        <v>125.5</v>
+      </c>
+      <c r="W225" s="8">
+        <v>131.19999999999999</v>
+      </c>
+      <c r="X225" s="8">
+        <v>137.1</v>
+      </c>
+      <c r="Y225" s="8">
+        <v>152.80000000000001</v>
+      </c>
+      <c r="Z225" s="8">
+        <v>120</v>
+      </c>
+      <c r="AA225" s="8">
+        <v>136.1</v>
+      </c>
+      <c r="AB225" s="8">
+        <v>124.9</v>
+      </c>
+      <c r="AC225" s="8">
+        <v>117.5</v>
+      </c>
+      <c r="AD225" s="8"/>
+      <c r="AE225" s="8"/>
+      <c r="AF225" s="8">
+        <v>158</v>
+      </c>
+      <c r="AG225" s="8">
+        <v>171</v>
+      </c>
+      <c r="AH225" s="8">
+        <v>121.4</v>
+      </c>
+      <c r="AI225" s="8">
+        <v>130.30000000000001</v>
+      </c>
+      <c r="AJ225" s="8">
+        <v>116.5</v>
+      </c>
+      <c r="AK225" s="8">
+        <v>158.80000000000001</v>
+      </c>
+      <c r="AL225" s="8">
+        <v>179.8</v>
+      </c>
+      <c r="AM225" s="8">
+        <v>125</v>
+      </c>
+      <c r="AN225" s="8">
+        <v>117</v>
+      </c>
+      <c r="AO225" s="8">
+        <v>116.1</v>
+      </c>
+      <c r="AP225" s="8">
+        <v>122.8</v>
+      </c>
+      <c r="AQ225" s="8">
+        <v>123.6</v>
+      </c>
+      <c r="AR225" s="8">
+        <v>128.9</v>
+      </c>
+      <c r="AS225" s="8">
+        <v>175.3</v>
+      </c>
+      <c r="AT225" s="8">
+        <v>176.2</v>
+      </c>
+      <c r="AU225" s="8">
+        <v>188.3</v>
+      </c>
+      <c r="AV225" s="8">
+        <v>183.3</v>
+      </c>
+      <c r="AW225" s="8">
+        <v>145.69999999999999</v>
+      </c>
+      <c r="AX225" s="8">
+        <v>172.2</v>
+      </c>
+      <c r="AY225" s="8">
+        <v>133.1</v>
+      </c>
+      <c r="AZ225" s="8">
+        <v>123.2</v>
+      </c>
+      <c r="BA225" s="8">
+        <v>184</v>
+      </c>
+      <c r="BB225" s="8">
+        <v>125.3</v>
+      </c>
+      <c r="BC225" s="8">
+        <v>112.7</v>
+      </c>
+      <c r="BD225" s="8">
+        <v>116</v>
+      </c>
+      <c r="BE225" s="8">
+        <v>129</v>
+      </c>
+      <c r="BF225" s="8">
+        <v>132.80000000000001</v>
+      </c>
+      <c r="BG225" s="8">
+        <v>130.19999999999999</v>
+      </c>
+      <c r="BH225" s="8"/>
+      <c r="BI225" s="8">
+        <v>101.4</v>
+      </c>
+      <c r="BJ225" s="8">
+        <v>130.5</v>
+      </c>
+      <c r="BK225" s="8">
+        <v>141.19999999999999</v>
       </c>
     </row>
   </sheetData>
